--- a/Input/Viventa/benefits.xlsx
+++ b/Input/Viventa/benefits.xlsx
@@ -313,10 +313,10 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-31</t>
+    <t xml:space="preserve">2024-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-31</t>
   </si>
   <si>
     <t xml:space="preserve">viventa_health_mednet</t>
@@ -525,7 +525,7 @@
       <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.82"/>
@@ -557,7 +557,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="66.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="3" width="64.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
